--- a/Code/Results/Cases/Case_4_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_110/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.128641499430046</v>
+        <v>3.754495054335223</v>
       </c>
       <c r="C2">
-        <v>3.134177283465931</v>
+        <v>1.956621400508425</v>
       </c>
       <c r="D2">
-        <v>0.5620308223582811</v>
+        <v>0.6868305614177075</v>
       </c>
       <c r="E2">
-        <v>0.2514960146576612</v>
+        <v>0.2794402107012743</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007897234705629419</v>
+        <v>0.002627713015233121</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.281506322110232</v>
+        <v>2.448129913967307</v>
       </c>
       <c r="J2">
-        <v>0.1494243343588835</v>
+        <v>0.1448514546007971</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.63898328219409</v>
+        <v>2.455164247716212</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.286766533577349</v>
+        <v>3.586508059874916</v>
       </c>
       <c r="C3">
-        <v>2.708270512284003</v>
+        <v>1.872547643677422</v>
       </c>
       <c r="D3">
-        <v>0.5023159447947592</v>
+        <v>0.6788607085536285</v>
       </c>
       <c r="E3">
-        <v>0.2232674284822096</v>
+        <v>0.27536416209756</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008053853122766478</v>
+        <v>0.002636509792782885</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.071833249515763</v>
+        <v>2.412306665499898</v>
       </c>
       <c r="J3">
-        <v>0.1315171092182581</v>
+        <v>0.1420321755307015</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.628333265084095</v>
+        <v>2.455157177253682</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.788380760614587</v>
+        <v>3.486160846921166</v>
       </c>
       <c r="C4">
-        <v>2.457256229914606</v>
+        <v>1.822378721579923</v>
       </c>
       <c r="D4">
-        <v>0.4674312826684002</v>
+        <v>0.6743822999516738</v>
       </c>
       <c r="E4">
-        <v>0.2067597034042947</v>
+        <v>0.2730385314095685</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008151167023568313</v>
+        <v>0.002642181172548103</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.950551101710985</v>
+        <v>2.391667677052283</v>
       </c>
       <c r="J4">
-        <v>0.1210328681999542</v>
+        <v>0.1403988741415958</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.625217986246383</v>
+        <v>2.455851492772439</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.589208806437057</v>
+        <v>3.445962712284199</v>
       </c>
       <c r="C5">
-        <v>2.357188473703445</v>
+        <v>1.802294186839561</v>
       </c>
       <c r="D5">
-        <v>0.453600718498592</v>
+        <v>0.672660964686429</v>
       </c>
       <c r="E5">
-        <v>0.2002103457404942</v>
+        <v>0.2721349828750732</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008191189566966184</v>
+        <v>0.002644560533786353</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.902746304327536</v>
+        <v>2.383594615067892</v>
       </c>
       <c r="J5">
-        <v>0.1168699095630572</v>
+        <v>0.1397576256559176</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.624714812967085</v>
+        <v>2.456308383506027</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.556353985856504</v>
+        <v>3.439329501659699</v>
       </c>
       <c r="C6">
-        <v>2.340695520184624</v>
+        <v>1.798980729611799</v>
       </c>
       <c r="D6">
-        <v>0.4513257748887725</v>
+        <v>0.67238137764204</v>
       </c>
       <c r="E6">
-        <v>0.199132774516471</v>
+        <v>0.2719876063315141</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008197859460739583</v>
+        <v>0.002644959754455045</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.894899309943909</v>
+        <v>2.382274367892265</v>
       </c>
       <c r="J6">
-        <v>0.1161847614915601</v>
+        <v>0.1396526095797057</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.624675038572349</v>
+        <v>2.456394705957109</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.785679662676898</v>
+        <v>3.485615922250133</v>
       </c>
       <c r="C7">
-        <v>2.45589818754712</v>
+        <v>1.82210640536664</v>
       </c>
       <c r="D7">
-        <v>0.4672432750563189</v>
+        <v>0.6743586666858334</v>
       </c>
       <c r="E7">
-        <v>0.2066706931690021</v>
+        <v>0.2730261674887018</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008151705202915773</v>
+        <v>0.002642212984756102</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.94990014787642</v>
+        <v>2.391557439172573</v>
       </c>
       <c r="J7">
-        <v>0.1209763049789032</v>
+        <v>0.1403901278265494</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.625208212463107</v>
+        <v>2.455856952502756</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.834038897295329</v>
+        <v>3.69598681401277</v>
       </c>
       <c r="C8">
-        <v>2.984875231992362</v>
+        <v>1.927327834484402</v>
       </c>
       <c r="D8">
-        <v>0.541030856485321</v>
+        <v>0.6839959496269046</v>
       </c>
       <c r="E8">
-        <v>0.2415722536435894</v>
+        <v>0.2779978130650633</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007951048374126979</v>
+        <v>0.002630690263689053</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.207496059731042</v>
+        <v>2.435494261042834</v>
       </c>
       <c r="J8">
-        <v>0.1431314958972365</v>
+        <v>0.1438589298409738</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.63453890442068</v>
+        <v>2.455015751709936</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.077239817064537</v>
+        <v>4.131172722617976</v>
       </c>
       <c r="C9">
-        <v>4.128395780227208</v>
+        <v>2.145462353742062</v>
       </c>
       <c r="D9">
-        <v>0.7032960273178332</v>
+        <v>0.7062239693675565</v>
       </c>
       <c r="E9">
-        <v>0.3181952124643033</v>
+        <v>0.2891698423637195</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007562454157885589</v>
+        <v>0.002610223628610161</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.785902708333467</v>
+        <v>2.532592183312659</v>
       </c>
       <c r="J9">
-        <v>0.1916799720427065</v>
+        <v>0.1514485902281919</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.685200405182229</v>
+        <v>2.458989834403297</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.911253442100133</v>
+        <v>4.465387711142057</v>
       </c>
       <c r="C10">
-        <v>5.074211277745576</v>
+        <v>2.31331444436853</v>
       </c>
       <c r="D10">
-        <v>0.8393550934984262</v>
+        <v>0.7246377207229102</v>
       </c>
       <c r="E10">
-        <v>0.3824000880593701</v>
+        <v>0.2982713806149704</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007272445858651629</v>
+        <v>0.002596465331980066</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.280547608682085</v>
+        <v>2.610852465893856</v>
       </c>
       <c r="J10">
-        <v>0.232334567988957</v>
+        <v>0.1575221081329659</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.751402836312053</v>
+        <v>2.465451996533147</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.80840538753068</v>
+        <v>4.620729134577687</v>
       </c>
       <c r="C11">
-        <v>5.540319364839206</v>
+        <v>2.391412293040162</v>
       </c>
       <c r="D11">
-        <v>0.9068366970172121</v>
+        <v>0.7334789910518964</v>
       </c>
       <c r="E11">
-        <v>0.414246476210721</v>
+        <v>0.3026118524972787</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007137196426143872</v>
+        <v>0.002590479715747151</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.528543012347512</v>
+        <v>2.648015435700287</v>
       </c>
       <c r="J11">
-        <v>0.2525042358046221</v>
+        <v>0.1603970535312698</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.790720980993683</v>
+        <v>2.469186361983702</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.15978336656565</v>
+        <v>4.680040374257374</v>
       </c>
       <c r="C12">
-        <v>5.723486141691751</v>
+        <v>2.421243477682424</v>
       </c>
       <c r="D12">
-        <v>0.9334189710453984</v>
+        <v>0.7368947586526247</v>
       </c>
       <c r="E12">
-        <v>0.4267931353508629</v>
+        <v>0.3042847349388538</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007085231198031929</v>
+        <v>0.002588252059082395</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.626669930162052</v>
+        <v>2.662317317986691</v>
       </c>
       <c r="J12">
-        <v>0.2604524040477969</v>
+        <v>0.1615021543804005</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.80727320142114</v>
+        <v>2.470716848197839</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.08353926448706</v>
+        <v>4.667244799427067</v>
       </c>
       <c r="C13">
-        <v>5.683712307906035</v>
+        <v>2.414807246945884</v>
       </c>
       <c r="D13">
-        <v>0.9276438890755685</v>
+        <v>0.7361560826138884</v>
       </c>
       <c r="E13">
-        <v>0.4240672293508183</v>
+        <v>0.3039231418326551</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007096461425804592</v>
+        <v>0.002588730096521905</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.605331313817061</v>
+        <v>2.65922689136454</v>
       </c>
       <c r="J13">
-        <v>0.2587254689984633</v>
+        <v>0.161263415829012</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.803627801722371</v>
+        <v>2.470382021582992</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.8370621470084</v>
+        <v>4.625598882335566</v>
       </c>
       <c r="C14">
-        <v>5.555244721871532</v>
+        <v>2.39386132741754</v>
       </c>
       <c r="D14">
-        <v>0.909001477200917</v>
+        <v>0.7337586446035402</v>
       </c>
       <c r="E14">
-        <v>0.4152681938058933</v>
+        <v>0.3027488928401993</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000713293809413873</v>
+        <v>0.002590295665819919</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.536525203043141</v>
+        <v>2.649187443244358</v>
       </c>
       <c r="J14">
-        <v>0.2531514380922744</v>
+        <v>0.1604876399496504</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.792047068544349</v>
+        <v>2.469309931806265</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.68769586752398</v>
+        <v>4.600153300618103</v>
       </c>
       <c r="C15">
-        <v>5.477475090884923</v>
+        <v>2.381065051960604</v>
       </c>
       <c r="D15">
-        <v>0.8977242935751804</v>
+        <v>0.7322989986766117</v>
       </c>
       <c r="E15">
-        <v>0.409945748319636</v>
+        <v>0.3020334532479225</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007155174027224762</v>
+        <v>0.002591259687698328</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.49496055316358</v>
+        <v>2.643067957764345</v>
       </c>
       <c r="J15">
-        <v>0.2497800405663781</v>
+        <v>0.1600146026070632</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.785182077616838</v>
+        <v>2.468668462467406</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.854092412590717</v>
+        <v>4.455303271850539</v>
       </c>
       <c r="C16">
-        <v>5.044589839074433</v>
+        <v>2.308246183293249</v>
       </c>
       <c r="D16">
-        <v>0.8350751381449868</v>
+        <v>0.7240693546217756</v>
       </c>
       <c r="E16">
-        <v>0.3803804173770402</v>
+        <v>0.297991786869261</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007281196502845005</v>
+        <v>0.002596861975536389</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.264874691132277</v>
+        <v>2.608455588114055</v>
       </c>
       <c r="J16">
-        <v>0.2310556026480128</v>
+        <v>0.1573365047786268</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.749045215251897</v>
+        <v>2.465224115619947</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.360422097968353</v>
+        <v>4.367297130826387</v>
       </c>
       <c r="C17">
-        <v>4.789145511506717</v>
+        <v>2.264024919635176</v>
       </c>
       <c r="D17">
-        <v>0.798212659961024</v>
+        <v>0.7191404292593688</v>
       </c>
       <c r="E17">
-        <v>0.3629857581391747</v>
+        <v>0.2955639383747481</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000735748743874439</v>
+        <v>0.002600368528823842</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.130176692997679</v>
+        <v>2.587625217758912</v>
       </c>
       <c r="J17">
-        <v>0.2200409475088065</v>
+        <v>0.1557224973483358</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.729444420313229</v>
+        <v>2.463316131425785</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.082198108850321</v>
+        <v>4.316988732363143</v>
       </c>
       <c r="C18">
-        <v>4.645483154416752</v>
+        <v>2.238753476360785</v>
       </c>
       <c r="D18">
-        <v>0.7775195474686996</v>
+        <v>0.7163491294579671</v>
       </c>
       <c r="E18">
-        <v>0.3532212239253667</v>
+        <v>0.2941863135177201</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007401075309536616</v>
+        <v>0.002602411129532356</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.054797135666618</v>
+        <v>2.575790886319993</v>
       </c>
       <c r="J18">
-        <v>0.2138581640166279</v>
+        <v>0.1548046928472218</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.719011452729092</v>
+        <v>2.462293382403885</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.98891180355065</v>
+        <v>4.30000814048708</v>
       </c>
       <c r="C19">
-        <v>4.597363159444512</v>
+        <v>2.230224868164328</v>
       </c>
       <c r="D19">
-        <v>0.7705948847010973</v>
+        <v>0.7154115186258707</v>
       </c>
       <c r="E19">
-        <v>0.3499536458211878</v>
+        <v>0.2937230901443044</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007415790142728529</v>
+        <v>0.002603107146256661</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.029611257863593</v>
+        <v>2.571809054807957</v>
       </c>
       <c r="J19">
-        <v>0.2117891995477805</v>
+        <v>0.1544957393681301</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.715614703172207</v>
+        <v>2.461959859433406</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.412365509985761</v>
+        <v>4.376633326648061</v>
       </c>
       <c r="C20">
-        <v>4.815990882812571</v>
+        <v>2.268715382304777</v>
       </c>
       <c r="D20">
-        <v>0.8020826184313989</v>
+        <v>0.7196605935695857</v>
       </c>
       <c r="E20">
-        <v>0.364811891598869</v>
+        <v>0.2958204370019004</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007349398135643062</v>
+        <v>0.002599992590017059</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.144292942603954</v>
+        <v>2.589827426577699</v>
       </c>
       <c r="J20">
-        <v>0.221197252108368</v>
+        <v>0.1558932192065186</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.731441791805509</v>
+        <v>2.463511496259571</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.90911744677226</v>
+        <v>4.637817992266719</v>
       </c>
       <c r="C21">
-        <v>5.592783530899169</v>
+        <v>2.400006615112375</v>
       </c>
       <c r="D21">
-        <v>0.9144471392772289</v>
+        <v>0.7344609833643574</v>
       </c>
       <c r="E21">
-        <v>0.4178384321847659</v>
+        <v>0.3030930009278663</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007122246939770429</v>
+        <v>0.0025898347652885</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.556612071131497</v>
+        <v>2.652130019414898</v>
       </c>
       <c r="J21">
-        <v>0.2547795773820667</v>
+        <v>0.1607150559765529</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.795400214152352</v>
+        <v>2.469621655637241</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.95710063345882</v>
+        <v>4.811360383845681</v>
       </c>
       <c r="C22">
-        <v>6.140388666692502</v>
+        <v>2.487315648243907</v>
       </c>
       <c r="D22">
-        <v>0.9940418860430498</v>
+        <v>0.7445293690312837</v>
       </c>
       <c r="E22">
-        <v>0.4554119870322495</v>
+        <v>0.3080166988211701</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000696922710419865</v>
+        <v>0.002583423022048325</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.851323456379021</v>
+        <v>2.694185728590782</v>
       </c>
       <c r="J22">
-        <v>0.278587182326433</v>
+        <v>0.1639622701454329</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.847142528034311</v>
+        <v>2.474294252347391</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.39028989640201</v>
+        <v>4.718473505162592</v>
       </c>
       <c r="C23">
-        <v>5.843831662203002</v>
+        <v>2.440577367238689</v>
       </c>
       <c r="D23">
-        <v>0.9509022529576896</v>
+        <v>0.7391191780637598</v>
       </c>
       <c r="E23">
-        <v>0.4350458357853597</v>
+        <v>0.3053730574930853</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007051428534191366</v>
+        <v>0.002586824422464949</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.691337004706924</v>
+        <v>2.671615931164638</v>
       </c>
       <c r="J23">
-        <v>0.2656810897098012</v>
+        <v>0.1622202957651382</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.818473531965765</v>
+        <v>2.47173754618268</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.388864655280258</v>
+        <v>4.37241153787113</v>
       </c>
       <c r="C24">
-        <v>4.803844242279524</v>
+        <v>2.26659435135673</v>
       </c>
       <c r="D24">
-        <v>0.8003314699412272</v>
+        <v>0.7194252952732256</v>
       </c>
       <c r="E24">
-        <v>0.3639855695428906</v>
+        <v>0.2957044173881869</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007353056139720553</v>
+        <v>0.002600162468878693</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.137904633987091</v>
+        <v>2.588831368108089</v>
       </c>
       <c r="J24">
-        <v>0.2206740254623156</v>
+        <v>0.1558160043872903</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.73053620093367</v>
+        <v>2.463422940932389</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.443920356360877</v>
+        <v>4.010949843362482</v>
       </c>
       <c r="C25">
-        <v>3.804022186742031</v>
+        <v>2.085147890639576</v>
       </c>
       <c r="D25">
-        <v>0.6569706536683384</v>
+        <v>0.6998488746243652</v>
       </c>
       <c r="E25">
-        <v>0.2963301050464224</v>
+        <v>0.2859925499084994</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007667726458747151</v>
+        <v>0.002615534451425143</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.61934697361086</v>
+        <v>2.505127718947463</v>
       </c>
       <c r="J25">
-        <v>0.1778329568872863</v>
+        <v>0.149309324880079</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.667204454735412</v>
+        <v>2.457301040665442</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_110/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.754495054335223</v>
+        <v>6.128641499430159</v>
       </c>
       <c r="C2">
-        <v>1.956621400508425</v>
+        <v>3.134177283466215</v>
       </c>
       <c r="D2">
-        <v>0.6868305614177075</v>
+        <v>0.5620308223578832</v>
       </c>
       <c r="E2">
-        <v>0.2794402107012743</v>
+        <v>0.2514960146577394</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002627713015233121</v>
+        <v>0.0007897234706255304</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.448129913967307</v>
+        <v>2.281506322110218</v>
       </c>
       <c r="J2">
-        <v>0.1448514546007971</v>
+        <v>0.1494243343588622</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.455164247716212</v>
+        <v>1.638983282194161</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.586508059874916</v>
+        <v>5.286766533577293</v>
       </c>
       <c r="C3">
-        <v>1.872547643677422</v>
+        <v>2.708270512283718</v>
       </c>
       <c r="D3">
-        <v>0.6788607085536285</v>
+        <v>0.5023159447945318</v>
       </c>
       <c r="E3">
-        <v>0.27536416209756</v>
+        <v>0.2232674284822025</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002636509792782885</v>
+        <v>0.0008053853121988536</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.412306665499898</v>
+        <v>2.071833249515763</v>
       </c>
       <c r="J3">
-        <v>0.1420321755307015</v>
+        <v>0.1315171092183931</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.455157177253682</v>
+        <v>1.628333265084095</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.486160846921166</v>
+        <v>4.788380760614587</v>
       </c>
       <c r="C4">
-        <v>1.822378721579923</v>
+        <v>2.45725622991489</v>
       </c>
       <c r="D4">
-        <v>0.6743822999516738</v>
+        <v>0.4674312826681728</v>
       </c>
       <c r="E4">
-        <v>0.2730385314095685</v>
+        <v>0.2067597034043303</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002642181172548103</v>
+        <v>0.0008151167022816141</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.391667677052283</v>
+        <v>1.950551101710985</v>
       </c>
       <c r="J4">
-        <v>0.1403988741415958</v>
+        <v>0.1210328681999471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.455851492772439</v>
+        <v>1.625217986246369</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.445962712284199</v>
+        <v>4.589208806437114</v>
       </c>
       <c r="C5">
-        <v>1.802294186839561</v>
+        <v>2.357188473703218</v>
       </c>
       <c r="D5">
-        <v>0.672660964686429</v>
+        <v>0.4536007184989614</v>
       </c>
       <c r="E5">
-        <v>0.2721349828750732</v>
+        <v>0.2002103457404729</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002644560533786353</v>
+        <v>0.0008191189567338661</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.383594615067892</v>
+        <v>1.902746304327536</v>
       </c>
       <c r="J5">
-        <v>0.1397576256559176</v>
+        <v>0.1168699095631638</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.456308383506027</v>
+        <v>1.624714812967113</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.439329501659699</v>
+        <v>4.556353985856504</v>
       </c>
       <c r="C6">
-        <v>1.798980729611799</v>
+        <v>2.340695520183942</v>
       </c>
       <c r="D6">
-        <v>0.67238137764204</v>
+        <v>0.4513257748889146</v>
       </c>
       <c r="E6">
-        <v>0.2719876063315141</v>
+        <v>0.199132774516471</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002644959754455045</v>
+        <v>0.000819785946092971</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.382274367892265</v>
+        <v>1.894899309943924</v>
       </c>
       <c r="J6">
-        <v>0.1396526095797057</v>
+        <v>0.1161847614915175</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.456394705957109</v>
+        <v>1.624675038572377</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.485615922250133</v>
+        <v>4.785679662676841</v>
       </c>
       <c r="C7">
-        <v>1.82210640536664</v>
+        <v>2.45589818754712</v>
       </c>
       <c r="D7">
-        <v>0.6743586666858334</v>
+        <v>0.4672432750560915</v>
       </c>
       <c r="E7">
-        <v>0.2730261674887018</v>
+        <v>0.2066706931690021</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002642212984756102</v>
+        <v>0.0008151705203299602</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.391557439172573</v>
+        <v>1.94990014787642</v>
       </c>
       <c r="J7">
-        <v>0.1403901278265494</v>
+        <v>0.1209763049787895</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.455856952502756</v>
+        <v>1.625208212463093</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.69598681401277</v>
+        <v>5.834038897295272</v>
       </c>
       <c r="C8">
-        <v>1.927327834484402</v>
+        <v>2.984875231992021</v>
       </c>
       <c r="D8">
-        <v>0.6839959496269046</v>
+        <v>0.5410308564850652</v>
       </c>
       <c r="E8">
-        <v>0.2779978130650633</v>
+        <v>0.2415722536434615</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002630690263689053</v>
+        <v>0.0007951048373523205</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.435494261042834</v>
+        <v>2.207496059731042</v>
       </c>
       <c r="J8">
-        <v>0.1438589298409738</v>
+        <v>0.1431314958971655</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.455015751709936</v>
+        <v>1.634538904420609</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.131172722617976</v>
+        <v>8.077239817064481</v>
       </c>
       <c r="C9">
-        <v>2.145462353742062</v>
+        <v>4.128395780227436</v>
       </c>
       <c r="D9">
-        <v>0.7062239693675565</v>
+        <v>0.7032960273184869</v>
       </c>
       <c r="E9">
-        <v>0.2891698423637195</v>
+        <v>0.3181952124642393</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002610223628610161</v>
+        <v>0.0007562454157548083</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.532592183312659</v>
+        <v>2.785902708333438</v>
       </c>
       <c r="J9">
-        <v>0.1514485902281919</v>
+        <v>0.1916799720426283</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.458989834403297</v>
+        <v>1.685200405182187</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.465387711142057</v>
+        <v>9.911253442100247</v>
       </c>
       <c r="C10">
-        <v>2.31331444436853</v>
+        <v>5.074211277745462</v>
       </c>
       <c r="D10">
-        <v>0.7246377207229102</v>
+        <v>0.8393550934981988</v>
       </c>
       <c r="E10">
-        <v>0.2982713806149704</v>
+        <v>0.3824000880593488</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002596465331980066</v>
+        <v>0.0007272445856646722</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.610852465893856</v>
+        <v>3.280547608682042</v>
       </c>
       <c r="J10">
-        <v>0.1575221081329659</v>
+        <v>0.2323345679887296</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.465451996533147</v>
+        <v>1.751402836312053</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.620729134577687</v>
+        <v>10.80840538753034</v>
       </c>
       <c r="C11">
-        <v>2.391412293040162</v>
+        <v>5.54031936483932</v>
       </c>
       <c r="D11">
-        <v>0.7334789910518964</v>
+        <v>0.9068366970169848</v>
       </c>
       <c r="E11">
-        <v>0.3026118524972787</v>
+        <v>0.4142464762107778</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002590479715747151</v>
+        <v>0.0007137196427208401</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.648015435700287</v>
+        <v>3.528543012347541</v>
       </c>
       <c r="J11">
-        <v>0.1603970535312698</v>
+        <v>0.2525042358047216</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.469186361983702</v>
+        <v>1.790720980993711</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.680040374257374</v>
+        <v>11.15978336656531</v>
       </c>
       <c r="C12">
-        <v>2.421243477682424</v>
+        <v>5.723486141692092</v>
       </c>
       <c r="D12">
-        <v>0.7368947586526247</v>
+        <v>0.9334189710451994</v>
       </c>
       <c r="E12">
-        <v>0.3042847349388538</v>
+        <v>0.4267931353508416</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002588252059082395</v>
+        <v>0.0007085231199099697</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.662317317986691</v>
+        <v>3.626669930162024</v>
       </c>
       <c r="J12">
-        <v>0.1615021543804005</v>
+        <v>0.2604524040476406</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.470716848197839</v>
+        <v>1.80727320142114</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.667244799427067</v>
+        <v>11.08353926448694</v>
       </c>
       <c r="C13">
-        <v>2.414807246945884</v>
+        <v>5.683712307905807</v>
       </c>
       <c r="D13">
-        <v>0.7361560826138884</v>
+        <v>0.9276438890760232</v>
       </c>
       <c r="E13">
-        <v>0.3039231418326551</v>
+        <v>0.4240672293508965</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002588730096521905</v>
+        <v>0.0007096461427963905</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.65922689136454</v>
+        <v>3.605331313817004</v>
       </c>
       <c r="J13">
-        <v>0.161263415829012</v>
+        <v>0.2587254689983354</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.470382021582992</v>
+        <v>1.803627801722342</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.625598882335566</v>
+        <v>10.83706214700862</v>
       </c>
       <c r="C14">
-        <v>2.39386132741754</v>
+        <v>5.555244721872327</v>
       </c>
       <c r="D14">
-        <v>0.7337586446035402</v>
+        <v>0.9090014772008601</v>
       </c>
       <c r="E14">
-        <v>0.3027488928401993</v>
+        <v>0.4152681938058862</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002590295665819919</v>
+        <v>0.0007132938092994143</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.649187443244358</v>
+        <v>3.536525203043226</v>
       </c>
       <c r="J14">
-        <v>0.1604876399496504</v>
+        <v>0.2531514380924165</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.469309931806265</v>
+        <v>1.792047068544406</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.600153300618103</v>
+        <v>10.68769586752387</v>
       </c>
       <c r="C15">
-        <v>2.381065051960604</v>
+        <v>5.47747509088515</v>
       </c>
       <c r="D15">
-        <v>0.7322989986766117</v>
+        <v>0.897724293574953</v>
       </c>
       <c r="E15">
-        <v>0.3020334532479225</v>
+        <v>0.4099457483195721</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002591259687698328</v>
+        <v>0.0007155174027272736</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.643067957764345</v>
+        <v>3.494960553163594</v>
       </c>
       <c r="J15">
-        <v>0.1600146026070632</v>
+        <v>0.2497800405662076</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.468668462467406</v>
+        <v>1.785182077616838</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.455303271850539</v>
+        <v>9.854092412590717</v>
       </c>
       <c r="C16">
-        <v>2.308246183293249</v>
+        <v>5.044589839074661</v>
       </c>
       <c r="D16">
-        <v>0.7240693546217756</v>
+        <v>0.8350751381451289</v>
       </c>
       <c r="E16">
-        <v>0.297991786869261</v>
+        <v>0.3803804173770615</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002596861975536389</v>
+        <v>0.0007281196503822001</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.608455588114055</v>
+        <v>3.26487469113232</v>
       </c>
       <c r="J16">
-        <v>0.1573365047786268</v>
+        <v>0.2310556026478565</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.465224115619947</v>
+        <v>1.749045215251869</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.367297130826387</v>
+        <v>9.36042209796824</v>
       </c>
       <c r="C17">
-        <v>2.264024919635176</v>
+        <v>4.789145511507286</v>
       </c>
       <c r="D17">
-        <v>0.7191404292593688</v>
+        <v>0.7982126599612229</v>
       </c>
       <c r="E17">
-        <v>0.2955639383747481</v>
+        <v>0.3629857581392955</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002600368528823842</v>
+        <v>0.0007357487438219845</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.587625217758912</v>
+        <v>3.130176692997694</v>
       </c>
       <c r="J17">
-        <v>0.1557224973483358</v>
+        <v>0.2200409475088634</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.463316131425785</v>
+        <v>1.729444420313172</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.316988732363143</v>
+        <v>9.082198108850207</v>
       </c>
       <c r="C18">
-        <v>2.238753476360785</v>
+        <v>4.645483154416411</v>
       </c>
       <c r="D18">
-        <v>0.7163491294579671</v>
+        <v>0.7775195474689554</v>
       </c>
       <c r="E18">
-        <v>0.2941863135177201</v>
+        <v>0.3532212239254235</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002602411129532356</v>
+        <v>0.0007401075310544946</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.575790886319993</v>
+        <v>3.05479713566659</v>
       </c>
       <c r="J18">
-        <v>0.1548046928472218</v>
+        <v>0.2138581640165995</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.462293382403885</v>
+        <v>1.719011452729092</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.30000814048708</v>
+        <v>8.988911803550764</v>
       </c>
       <c r="C19">
-        <v>2.230224868164328</v>
+        <v>4.597363159444967</v>
       </c>
       <c r="D19">
-        <v>0.7154115186258707</v>
+        <v>0.7705948847008983</v>
       </c>
       <c r="E19">
-        <v>0.2937230901443044</v>
+        <v>0.3499536458212233</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002603107146256661</v>
+        <v>0.0007415790143153319</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.571809054807957</v>
+        <v>3.029611257863564</v>
       </c>
       <c r="J19">
-        <v>0.1544957393681301</v>
+        <v>0.2117891995475816</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.461959859433406</v>
+        <v>1.715614703172179</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.376633326648061</v>
+        <v>9.412365509985534</v>
       </c>
       <c r="C20">
-        <v>2.268715382304777</v>
+        <v>4.815990882813253</v>
       </c>
       <c r="D20">
-        <v>0.7196605935695857</v>
+        <v>0.8020826184319958</v>
       </c>
       <c r="E20">
-        <v>0.2958204370019004</v>
+        <v>0.3648118915988903</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002599992590017059</v>
+        <v>0.0007349398135626599</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.589827426577699</v>
+        <v>3.144292942603968</v>
       </c>
       <c r="J20">
-        <v>0.1558932192065186</v>
+        <v>0.221197252108567</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.463511496259571</v>
+        <v>1.731441791805509</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.637817992266719</v>
+        <v>10.90911744677237</v>
       </c>
       <c r="C21">
-        <v>2.400006615112375</v>
+        <v>5.592783530899624</v>
       </c>
       <c r="D21">
-        <v>0.7344609833643574</v>
+        <v>0.9144471392769447</v>
       </c>
       <c r="E21">
-        <v>0.3030930009278663</v>
+        <v>0.4178384321847943</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0025898347652885</v>
+        <v>0.0007122246941709849</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.652130019414898</v>
+        <v>3.556612071131525</v>
       </c>
       <c r="J21">
-        <v>0.1607150559765529</v>
+        <v>0.2547795773822656</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.469621655637241</v>
+        <v>1.795400214152323</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.811360383845681</v>
+        <v>11.95710063345837</v>
       </c>
       <c r="C22">
-        <v>2.487315648243907</v>
+        <v>6.140388666692274</v>
       </c>
       <c r="D22">
-        <v>0.7445293690312837</v>
+        <v>0.994041886043135</v>
       </c>
       <c r="E22">
-        <v>0.3080166988211701</v>
+        <v>0.4554119870322637</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002583423022048325</v>
+        <v>0.0006969227103225813</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.694185728590782</v>
+        <v>3.851323456379021</v>
       </c>
       <c r="J22">
-        <v>0.1639622701454329</v>
+        <v>0.278587182326433</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.474294252347391</v>
+        <v>1.847142528034283</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.718473505162592</v>
+        <v>11.39028989640201</v>
       </c>
       <c r="C23">
-        <v>2.440577367238689</v>
+        <v>5.843831662202547</v>
       </c>
       <c r="D23">
-        <v>0.7391191780637598</v>
+        <v>0.9509022529579454</v>
       </c>
       <c r="E23">
-        <v>0.3053730574930853</v>
+        <v>0.4350458357853526</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002586824422464949</v>
+        <v>0.0007051428534277993</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.671615931164638</v>
+        <v>3.691337004706867</v>
       </c>
       <c r="J23">
-        <v>0.1622202957651382</v>
+        <v>0.2656810897099433</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.47173754618268</v>
+        <v>1.818473531965765</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.37241153787113</v>
+        <v>9.388864655280031</v>
       </c>
       <c r="C24">
-        <v>2.26659435135673</v>
+        <v>4.803844242279979</v>
       </c>
       <c r="D24">
-        <v>0.7194252952732256</v>
+        <v>0.8003314699412272</v>
       </c>
       <c r="E24">
-        <v>0.2957044173881869</v>
+        <v>0.3639855695428906</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002600162468878693</v>
+        <v>0.0007353056139736096</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.588831368108089</v>
+        <v>3.137904633987091</v>
       </c>
       <c r="J24">
-        <v>0.1558160043872903</v>
+        <v>0.2206740254625714</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.463422940932389</v>
+        <v>1.73053620093367</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.010949843362482</v>
+        <v>7.443920356360991</v>
       </c>
       <c r="C25">
-        <v>2.085147890639576</v>
+        <v>3.804022186741804</v>
       </c>
       <c r="D25">
-        <v>0.6998488746243652</v>
+        <v>0.6569706536681679</v>
       </c>
       <c r="E25">
-        <v>0.2859925499084994</v>
+        <v>0.2963301050464082</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002615534451425143</v>
+        <v>0.0007667726457888182</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.505127718947463</v>
+        <v>2.619346973610845</v>
       </c>
       <c r="J25">
-        <v>0.149309324880079</v>
+        <v>0.1778329568875492</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.457301040665442</v>
+        <v>1.667204454735383</v>
       </c>
       <c r="O25">
         <v>0</v>
